--- a/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/负债合计.xlsx
+++ b/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/负债合计.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1409.09754</v>
-      </c>
-      <c r="C2" t="n">
-        <v>4020.57776</v>
-      </c>
-      <c r="D2" t="n">
-        <v>339.99642</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1.07504</v>
-      </c>
-      <c r="F2" t="n">
-        <v>62.52466</v>
-      </c>
-      <c r="G2" t="n">
-        <v>3963.36896</v>
-      </c>
-      <c r="H2" t="n">
-        <v>711.62616</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1005.24697</v>
-      </c>
-      <c r="J2" t="n">
-        <v>279.96408</v>
-      </c>
-      <c r="K2" t="n">
-        <v>51239.61</v>
-      </c>
-      <c r="L2" t="n">
-        <v>298.95551</v>
-      </c>
-      <c r="M2" t="n">
-        <v>35.33105</v>
-      </c>
-      <c r="N2" t="n">
-        <v>52.68103</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1946.21731</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1350.77538</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>267.47355</v>
-      </c>
-      <c r="R2" t="n">
-        <v>141.14521</v>
-      </c>
-      <c r="S2" t="n">
-        <v>195.58229</v>
-      </c>
-      <c r="T2" t="n">
-        <v>271.44932</v>
-      </c>
-      <c r="U2" t="n">
-        <v>400.57428</v>
-      </c>
-      <c r="V2" t="n">
-        <v>885.93038</v>
-      </c>
-      <c r="W2" t="n">
-        <v>257.27366</v>
-      </c>
-      <c r="X2" t="n">
-        <v>2336.28197</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>9996.30005</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>2305.82374</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1213.95814</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>97.5688</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>2025.9517</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1627.89965</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>2052.91635</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>521.34531</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>763.53923</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>445.11341</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1969.07444</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>322.26589</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>463.32023</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1271.41565</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>961.97039</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4347.15267</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>106.32271</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1319.02082</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4215.71293</v>
-      </c>
-      <c r="D3" t="n">
-        <v>354.17778</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.51469</v>
-      </c>
-      <c r="F3" t="n">
-        <v>57.6455</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3776.57354</v>
-      </c>
-      <c r="H3" t="n">
-        <v>590.86391</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1054.20324</v>
-      </c>
-      <c r="J3" t="n">
-        <v>285.68356</v>
-      </c>
-      <c r="K3" t="n">
-        <v>52025.6</v>
-      </c>
-      <c r="L3" t="n">
-        <v>303.37613</v>
-      </c>
-      <c r="M3" t="n">
-        <v>36.02899</v>
-      </c>
-      <c r="N3" t="n">
-        <v>46.85284</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1949.31507</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1428.42123</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>265.72899</v>
-      </c>
-      <c r="R3" t="n">
-        <v>141.42206</v>
-      </c>
-      <c r="S3" t="n">
-        <v>187.60598</v>
-      </c>
-      <c r="T3" t="n">
-        <v>263.58147</v>
-      </c>
-      <c r="U3" t="n">
-        <v>379.17995</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1226.9086</v>
-      </c>
-      <c r="W3" t="n">
-        <v>260.37203</v>
-      </c>
-      <c r="X3" t="n">
-        <v>2528.42956</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>11268.32687</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>2233.58249</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1228.13666</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>92.47065000000001</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1968.83753</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1530.99782</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1845.67963</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>598.48022</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>764.87203</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>457.06384</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1840.70363</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>274.68171</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>434.01702</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1046.87218</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>935.51706</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4232.90165</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>107.39251</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1382.9856</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4610.69919</v>
-      </c>
-      <c r="D4" t="n">
-        <v>328.76178</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.50888</v>
-      </c>
-      <c r="F4" t="n">
-        <v>56.61352</v>
-      </c>
-      <c r="G4" t="n">
-        <v>3704.40004</v>
-      </c>
-      <c r="H4" t="n">
-        <v>540.83487</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1080.34672</v>
-      </c>
-      <c r="J4" t="n">
-        <v>264.68668</v>
-      </c>
-      <c r="K4" t="n">
-        <v>52837.08</v>
-      </c>
-      <c r="L4" t="n">
-        <v>262.99634</v>
-      </c>
-      <c r="M4" t="n">
-        <v>27.31873</v>
-      </c>
-      <c r="N4" t="n">
-        <v>45.42158</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1956.45374</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1470.1753</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>264.40488</v>
-      </c>
-      <c r="R4" t="n">
-        <v>111.12332</v>
-      </c>
-      <c r="S4" t="n">
-        <v>170.20306</v>
-      </c>
-      <c r="T4" t="n">
-        <v>268.0239</v>
-      </c>
-      <c r="U4" t="n">
-        <v>362.20725</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1177.56181</v>
-      </c>
-      <c r="W4" t="n">
-        <v>305.90395</v>
-      </c>
-      <c r="X4" t="n">
-        <v>2524.63408</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>12295.67541</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>2137.44069</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1195.41456</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>71.36024</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>1850.4427</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>1548.75713</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1702.71498</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>694.75427</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>794.8857</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>399.62654</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1773.40949</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>315.02016</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>442.93615</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>908.91202</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>885.16093</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4281.35481</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>122.36165</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
